--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A022730C-4C0E-43F1-ADC3-3B59CCBBD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3387372-0FD2-494B-8E22-BC80AC458BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="2685" windowWidth="15300" windowHeight="7785" xr2:uid="{A843F7DC-4888-427C-8F73-038D13A741B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A843F7DC-4888-427C-8F73-038D13A741B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
   <si>
     <t>12000 Hours</t>
   </si>
@@ -306,6 +306,48 @@
   </si>
   <si>
     <t>5years</t>
+  </si>
+  <si>
+    <t>Daily/After Arrival in Port</t>
+  </si>
+  <si>
+    <t>36 months</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>45000 Hours</t>
+  </si>
+  <si>
+    <t>6 years</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>48 months</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>Every dry dock</t>
+  </si>
+  <si>
+    <t>Every Dry Dock</t>
+  </si>
+  <si>
+    <t>7.5 years</t>
+  </si>
+  <si>
+    <t>24 months</t>
+  </si>
+  <si>
+    <t>Daily/After arrival in port</t>
   </si>
 </sst>
 </file>
@@ -713,16 +755,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C2E9F-2458-4295-BD47-8BC6B3667658}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -735,10 +776,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1431,10 +1472,106 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/interval_list.xlsx
+++ b/data/interval_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3387372-0FD2-494B-8E22-BC80AC458BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9949C-8301-4305-8629-1E859D016E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A843F7DC-4888-427C-8F73-038D13A741B8}"/>
+    <workbookView xWindow="5070" yWindow="2985" windowWidth="15300" windowHeight="7785" xr2:uid="{A843F7DC-4888-427C-8F73-038D13A741B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="111">
   <si>
     <t>12000 Hours</t>
   </si>
@@ -348,6 +348,24 @@
   </si>
   <si>
     <t>Daily/After arrival in port</t>
+  </si>
+  <si>
+    <t>500hrs</t>
+  </si>
+  <si>
+    <t>When Docked</t>
+  </si>
+  <si>
+    <t>2yrs</t>
+  </si>
+  <si>
+    <t>1year</t>
+  </si>
+  <si>
+    <t>2 year</t>
+  </si>
+  <si>
+    <t>1 Months</t>
   </si>
 </sst>
 </file>
@@ -755,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C2E9F-2458-4295-BD47-8BC6B3667658}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,10 +1410,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1568,10 +1586,66 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>55</v>
       </c>
     </row>
